--- a/data/trans_dic/P15D$urgencias-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15D$urgencias-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.5460040014222702</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3921284165372345</v>
+        <v>0.3921284165372346</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3123701538275243</v>
+        <v>0.3290608262613347</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4451540731254746</v>
+        <v>0.4399613877563087</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3632760841563191</v>
+        <v>0.3569399512683885</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1513718134839074</v>
+        <v>0.1670676061705478</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5159640920330194</v>
+        <v>0.5085494083746522</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4261301439429815</v>
+        <v>0.4256298377357052</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4423463147458037</v>
+        <v>0.4506049142059156</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3623338405403198</v>
+        <v>0.3724531482496003</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4900272159536209</v>
+        <v>0.5003876027479699</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4693687358994031</v>
+        <v>0.4732287162316896</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4563186662957164</v>
+        <v>0.4512355863533183</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3217594445209307</v>
+        <v>0.3204012743314503</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7182478371032317</v>
+        <v>0.7007697480272801</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6914564803987832</v>
+        <v>0.6903270465419806</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6390900010886102</v>
+        <v>0.6320758766700927</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4303829568434062</v>
+        <v>0.4254997388322065</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7899568555739219</v>
+        <v>0.7946750980320673</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6075205568207879</v>
+        <v>0.609722715586415</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6843452013614418</v>
+        <v>0.6961120923215548</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5253009317294843</v>
+        <v>0.5372210589874584</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7174635771182042</v>
+        <v>0.7226578054033875</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6178188096422798</v>
+        <v>0.6172285317350691</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6348279987517207</v>
+        <v>0.6373888468475167</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4660724525147628</v>
+        <v>0.4603871675116361</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.6429774042359008</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7028462260506922</v>
+        <v>0.7028462260506921</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.5990729689212498</v>
@@ -821,7 +821,7 @@
         <v>0.7215377621587846</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.5706433141226647</v>
+        <v>0.5706433141226646</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5328567912912041</v>
@@ -833,7 +833,7 @@
         <v>0.6752880177097925</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.6444246810088495</v>
+        <v>0.6444246810088494</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.382381787627029</v>
+        <v>0.3924925866307913</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5364170575641729</v>
+        <v>0.5361254031015793</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5443619813862765</v>
+        <v>0.5473656928034429</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.613825119455278</v>
+        <v>0.6126992584579987</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4275572500087393</v>
+        <v>0.4196073582254525</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.459161986471521</v>
+        <v>0.4576440766980183</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6069915852916654</v>
+        <v>0.6174197874701121</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4763267983182565</v>
+        <v>0.4706702612449071</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.435117275673337</v>
+        <v>0.4431936334407562</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5189421955344015</v>
+        <v>0.5301761113619807</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6058559799290504</v>
+        <v>0.6058267258747647</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5783372492687533</v>
+        <v>0.5787596454107478</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6098104935277189</v>
+        <v>0.6292843413204314</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6777977219967165</v>
+        <v>0.6840421530576988</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7266837708297565</v>
+        <v>0.729873469750949</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7770395248874781</v>
+        <v>0.7718003095144815</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7836652054245112</v>
+        <v>0.7698626736749985</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6496976263583056</v>
+        <v>0.6523431709630121</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8141519077924331</v>
+        <v>0.8101721624993118</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6607817639557508</v>
+        <v>0.6578659981435002</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6331980591004313</v>
+        <v>0.6303730552032591</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6376765657294302</v>
+        <v>0.6469827640759067</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7363318905699106</v>
+        <v>0.7459946887009584</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7053086103945879</v>
+        <v>0.7070625915199484</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.6382810174296332</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.518428468680365</v>
+        <v>0.5184284686803649</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.421605599782935</v>
@@ -969,7 +969,7 @@
         <v>0.6336143137576938</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5436665600402476</v>
+        <v>0.5436665600402477</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05604185801856028</v>
+        <v>0.05353419026488581</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2606711621112894</v>
+        <v>0.2763544631389642</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.434072622242281</v>
+        <v>0.4368782887458245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3609340914775156</v>
+        <v>0.3389479599439639</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4182272399566848</v>
+        <v>0.3654620096043365</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4978173232235693</v>
+        <v>0.5038151663388686</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4518911699099192</v>
+        <v>0.431732997537406</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.377291182872927</v>
+        <v>0.3782827701578502</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2416725000388519</v>
+        <v>0.2426351925806321</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4272490709318111</v>
+        <v>0.4447326320040844</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4857985687377224</v>
+        <v>0.5013854513418563</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4052802144258384</v>
+        <v>0.4206831797169741</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5286816493118038</v>
+        <v>0.5482148588175353</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.65693538477897</v>
+        <v>0.6764213970923224</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.791363489703365</v>
+        <v>0.8028790488330845</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7483872546600964</v>
+        <v>0.7559064449121372</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9265941859958012</v>
+        <v>0.9292050940887863</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8579859779258835</v>
+        <v>0.8380606561923363</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7989135773460548</v>
+        <v>0.8143582534583048</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6641306008052694</v>
+        <v>0.6432186297448824</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.608384233287076</v>
+        <v>0.6097469056238488</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7153267086179566</v>
+        <v>0.7233837217568949</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7517912759887797</v>
+        <v>0.7612366264618845</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.653425507992961</v>
+        <v>0.6634698437967689</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.6078352104556503</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6021748710883917</v>
+        <v>0.6021748710883918</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6489744523220928</v>
@@ -1105,7 +1105,7 @@
         <v>0.6285570072213861</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5586986650743392</v>
+        <v>0.5586986650743391</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3768428770374856</v>
+        <v>0.371205066504221</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5262053752444833</v>
+        <v>0.5315045400827215</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5364370452519917</v>
+        <v>0.5353053266160632</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5307978868797602</v>
+        <v>0.523644256661447</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5477534266758802</v>
+        <v>0.5442485278049736</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4912829525620363</v>
+        <v>0.4935502705324988</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5825148803480666</v>
+        <v>0.5711940730056578</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4623399512640122</v>
+        <v>0.4607271429364329</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4697622848356307</v>
+        <v>0.474900059923738</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5268937224592972</v>
+        <v>0.5279103095801649</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5745923606082637</v>
+        <v>0.5781277232443915</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5107908071046313</v>
+        <v>0.5136323007922868</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5507816396693321</v>
+        <v>0.5538676501407658</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6416566690483609</v>
+        <v>0.6442543426664673</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6768111552014527</v>
+        <v>0.6716040037814058</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6833754209335489</v>
+        <v>0.6741633147306895</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7449623015142078</v>
+        <v>0.7433971074985669</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6155883024107116</v>
+        <v>0.6156886981798232</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7214831630641856</v>
+        <v>0.7147024799837746</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5815354399503361</v>
+        <v>0.5687994479255647</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6118178842034363</v>
+        <v>0.615520220945219</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6129777602424448</v>
+        <v>0.6151786902430502</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6784732570342372</v>
+        <v>0.6787288455800214</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6048670929793144</v>
+        <v>0.6043646392753012</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7864</v>
+        <v>8284</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>33301</v>
+        <v>32912</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16603</v>
+        <v>16313</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5728</v>
+        <v>6322</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23491</v>
+        <v>23153</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>47669</v>
+        <v>47614</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>33000</v>
+        <v>33616</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>30625</v>
+        <v>31480</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>34646</v>
+        <v>35378</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>87618</v>
+        <v>88339</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>54897</v>
+        <v>54286</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>39372</v>
+        <v>39206</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18081</v>
+        <v>17641</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>51726</v>
+        <v>51641</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29208</v>
+        <v>28888</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16287</v>
+        <v>16102</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>35965</v>
+        <v>36180</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>67961</v>
+        <v>68207</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>51054</v>
+        <v>51931</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>44399</v>
+        <v>45406</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>50726</v>
+        <v>51093</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>115330</v>
+        <v>115220</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>76373</v>
+        <v>76681</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>57030</v>
+        <v>56335</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>30018</v>
+        <v>30812</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>97635</v>
+        <v>97582</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>65965</v>
+        <v>66329</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>86069</v>
+        <v>85911</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>14982</v>
+        <v>14704</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>52208</v>
+        <v>52036</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>51386</v>
+        <v>52269</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>52885</v>
+        <v>52257</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>49406</v>
+        <v>50323</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>153460</v>
+        <v>156782</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>124708</v>
+        <v>124702</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>145304</v>
+        <v>145410</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>47872</v>
+        <v>49401</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>123369</v>
+        <v>124505</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>88059</v>
+        <v>88445</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>108955</v>
+        <v>108220</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>27461</v>
+        <v>26978</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>73873</v>
+        <v>74173</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>68924</v>
+        <v>68587</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>73365</v>
+        <v>73041</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>71897</v>
+        <v>71576</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>188572</v>
+        <v>191324</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>151564</v>
+        <v>153553</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>177205</v>
+        <v>177646</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1087</v>
+        <v>1039</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6792</v>
+        <v>7200</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13368</v>
+        <v>13454</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15040</v>
+        <v>14124</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5536</v>
+        <v>4837</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14325</v>
+        <v>14497</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14012</v>
+        <v>13387</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13295</v>
+        <v>13330</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7887</v>
+        <v>7919</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>23426</v>
+        <v>24384</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>30024</v>
+        <v>30987</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>31169</v>
+        <v>32354</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10256</v>
+        <v>10635</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17116</v>
+        <v>17623</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24371</v>
+        <v>24725</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>31185</v>
+        <v>31498</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12264</v>
+        <v>12299</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>24689</v>
+        <v>24115</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24772</v>
+        <v>25251</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23403</v>
+        <v>22666</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>19855</v>
+        <v>19900</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>39221</v>
+        <v>39662</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>46463</v>
+        <v>47047</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>50254</v>
+        <v>51026</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>46381</v>
+        <v>45687</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>148850</v>
+        <v>150349</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>106042</v>
+        <v>105819</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>116632</v>
+        <v>115060</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>51383</v>
+        <v>51054</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>124955</v>
+        <v>125532</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>110833</v>
+        <v>108679</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>106703</v>
+        <v>106330</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>101883</v>
+        <v>102998</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>283057</v>
+        <v>283603</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>222910</v>
+        <v>224282</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>230120</v>
+        <v>231400</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>67789</v>
+        <v>68168</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>181509</v>
+        <v>182243</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>133791</v>
+        <v>132762</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>150157</v>
+        <v>148133</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>69882</v>
+        <v>69735</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>156571</v>
+        <v>156597</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>137274</v>
+        <v>135984</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>134211</v>
+        <v>131272</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>132693</v>
+        <v>133496</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>329303</v>
+        <v>330485</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>263210</v>
+        <v>263309</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>272503</v>
+        <v>272277</v>
       </c>
     </row>
     <row r="20">
